--- a/data/error_vote_record_from_name.xlsx
+++ b/data/error_vote_record_from_name.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\scripts\R\vote_record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software\scripts\R\vote_record\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646B50CF-9DB0-46E4-BF56-1466BE57AC29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="error_vote_record_from_name" sheetId="1" r:id="rId1"/>
@@ -627,7 +628,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1538,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1570,76 +1571,76 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -1654,15 +1655,15 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1677,15 +1678,15 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1703,7 +1704,7 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -1731,7 +1732,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1746,15 +1747,15 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1769,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1815,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -1823,140 +1824,140 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1984,99 +1985,99 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -2094,12 +2095,12 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>7</v>
@@ -2117,12 +2118,12 @@
         <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>7</v>
@@ -2140,12 +2141,12 @@
         <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>7</v>
@@ -2163,12 +2164,12 @@
         <v>28</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>7</v>
@@ -2186,12 +2187,12 @@
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -2209,12 +2210,12 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -2232,12 +2233,12 @@
         <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -2255,12 +2256,12 @@
         <v>28</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B32">
         <v>7</v>
@@ -2278,12 +2279,12 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>7</v>
@@ -2301,12 +2302,12 @@
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -2324,12 +2325,12 @@
         <v>28</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>7</v>
@@ -2347,12 +2348,12 @@
         <v>28</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>7</v>
@@ -2370,12 +2371,12 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>7</v>
@@ -2393,12 +2394,12 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B38">
         <v>7</v>
@@ -2413,15 +2414,15 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>7</v>
@@ -2436,15 +2437,15 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -2459,15 +2460,15 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>7</v>
@@ -2482,15 +2483,15 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>7</v>
@@ -2508,12 +2509,12 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>7</v>
@@ -2531,12 +2532,12 @@
         <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>7</v>
@@ -2554,12 +2555,12 @@
         <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>7</v>
@@ -2577,12 +2578,12 @@
         <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B46">
         <v>7</v>
@@ -2600,12 +2601,12 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B47">
         <v>7</v>
@@ -2623,12 +2624,12 @@
         <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B48">
         <v>7</v>
@@ -2646,12 +2647,12 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B49">
         <v>7</v>
@@ -2669,12 +2670,12 @@
         <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -2692,12 +2693,12 @@
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B51">
         <v>7</v>
@@ -2715,12 +2716,12 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B52">
         <v>7</v>
@@ -2738,12 +2739,12 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -2761,12 +2762,12 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B54">
         <v>7</v>
@@ -2784,12 +2785,12 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>7</v>
@@ -2807,12 +2808,12 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B56">
         <v>7</v>
@@ -2830,12 +2831,12 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>7</v>
@@ -2850,15 +2851,15 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>7</v>
@@ -2873,15 +2874,15 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>7</v>
@@ -2896,15 +2897,15 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>7</v>
@@ -2919,15 +2920,15 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B61">
         <v>7</v>
@@ -2945,12 +2946,12 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>7</v>
@@ -2968,12 +2969,12 @@
         <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B63">
         <v>7</v>
@@ -2991,12 +2992,12 @@
         <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B64">
         <v>7</v>
@@ -3014,12 +3015,12 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -3037,12 +3038,12 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>7</v>
@@ -3060,12 +3061,12 @@
         <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B67">
         <v>7</v>
@@ -3083,12 +3084,12 @@
         <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -3106,12 +3107,12 @@
         <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>7</v>
@@ -3129,12 +3130,12 @@
         <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B70">
         <v>7</v>
@@ -3152,12 +3153,12 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B71">
         <v>7</v>
@@ -3175,12 +3176,12 @@
         <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B72">
         <v>7</v>
@@ -3198,12 +3199,12 @@
         <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -3221,12 +3222,12 @@
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B74">
         <v>7</v>
@@ -3244,288 +3245,288 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B75">
         <v>7</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B76">
         <v>7</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B77">
         <v>7</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B78">
         <v>7</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B79">
         <v>7</v>
       </c>
       <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
         <v>5</v>
       </c>
-      <c r="D79">
-        <v>16</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>105</v>
-      </c>
       <c r="G79" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D80">
+        <v>12</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
         <v>13</v>
       </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
       <c r="G80" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81">
+        <v>12</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>13</v>
       </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
       <c r="G81" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82">
+        <v>12</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>13</v>
       </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
       <c r="G82" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="G83" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
         <v>8</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
       <c r="D84">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="G84" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
         <v>8</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
       <c r="D85">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E85">
         <v>0</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="G85" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="B86">
+        <v>7</v>
+      </c>
+      <c r="C86">
         <v>8</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
       <c r="D86">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="G86" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87">
         <v>7</v>
@@ -3543,12 +3544,12 @@
         <v>48</v>
       </c>
       <c r="G87" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B88">
         <v>7</v>
@@ -3566,12 +3567,12 @@
         <v>48</v>
       </c>
       <c r="G88" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="B89">
         <v>7</v>
@@ -3589,12 +3590,12 @@
         <v>48</v>
       </c>
       <c r="G89" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>7</v>
@@ -3612,84 +3613,84 @@
         <v>48</v>
       </c>
       <c r="G90" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91">
         <v>0</v>
       </c>
       <c r="F91">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G91" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B94">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -3701,125 +3702,125 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G95" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E96">
         <v>0</v>
       </c>
       <c r="F96">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B98">
         <v>9</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G98" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B99">
         <v>9</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3839,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G100" t="s">
         <v>138</v>
@@ -3847,7 +3848,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B101">
         <v>9</v>
@@ -3862,15 +3863,15 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G101" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B102">
         <v>9</v>
@@ -3879,21 +3880,21 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G102" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B103">
         <v>9</v>
@@ -3902,36 +3903,36 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G103" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B104">
         <v>9</v>
       </c>
       <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>2</v>
-      </c>
-      <c r="D104">
-        <v>11</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
       </c>
       <c r="G104" t="s">
         <v>142</v>
@@ -3939,16 +3940,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="B105">
         <v>9</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -3957,99 +3958,99 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="B106">
         <v>9</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G106" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B107">
         <v>9</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G107" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B108">
         <v>9</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G108" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B109">
         <v>9</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E109">
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G109" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -4069,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" t="s">
         <v>142</v>
@@ -4077,94 +4078,94 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B111">
         <v>9</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G111" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B112">
         <v>9</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E112">
         <v>0</v>
       </c>
       <c r="F112">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G112" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B113">
         <v>9</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D113">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E113">
         <v>0</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B114">
         <v>9</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -4175,16 +4176,16 @@
         <v>9</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E115">
         <v>0</v>
       </c>
       <c r="F115">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G115" t="s">
         <v>145</v>
@@ -4192,45 +4193,45 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B116">
         <v>9</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G116" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B117">
         <v>9</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D117">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E117">
         <v>0</v>
       </c>
       <c r="F117">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G117" t="s">
         <v>145</v>
@@ -4238,22 +4239,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B118">
         <v>9</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G118" t="s">
         <v>145</v>
@@ -4261,22 +4262,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="B119">
         <v>9</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G119" t="s">
         <v>145</v>
@@ -4284,99 +4285,99 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B120">
         <v>9</v>
       </c>
       <c r="C120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G120" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B121">
         <v>9</v>
       </c>
       <c r="C121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D121">
+        <v>14</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
         <v>8</v>
       </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
       <c r="G121" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B122">
         <v>9</v>
       </c>
       <c r="C122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D122">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B123">
         <v>9</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B124">
         <v>9</v>
@@ -4385,21 +4386,21 @@
         <v>2</v>
       </c>
       <c r="D124">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="G124" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B125">
         <v>9</v>
@@ -4408,16 +4409,16 @@
         <v>2</v>
       </c>
       <c r="D125">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E125">
         <v>0</v>
       </c>
       <c r="F125">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="G125" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -4431,13 +4432,13 @@
         <v>2</v>
       </c>
       <c r="D126">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E126">
         <v>0</v>
       </c>
       <c r="F126">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="G126" t="s">
         <v>149</v>
@@ -4445,7 +4446,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B127">
         <v>9</v>
@@ -4454,16 +4455,16 @@
         <v>2</v>
       </c>
       <c r="D127">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>183</v>
+        <v>2</v>
       </c>
       <c r="G127" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -4483,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G128" t="s">
         <v>149</v>
@@ -4491,7 +4492,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B129">
         <v>9</v>
@@ -4506,15 +4507,15 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G129" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B130">
         <v>9</v>
@@ -4529,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -4552,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G131" t="s">
         <v>145</v>
@@ -4560,7 +4561,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B132">
         <v>9</v>
@@ -4575,15 +4576,15 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B133">
         <v>9</v>
@@ -4592,21 +4593,21 @@
         <v>2</v>
       </c>
       <c r="D133">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="G133" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B134">
         <v>9</v>
@@ -4615,21 +4616,21 @@
         <v>2</v>
       </c>
       <c r="D134">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="G134" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B135">
         <v>9</v>
@@ -4638,21 +4639,21 @@
         <v>2</v>
       </c>
       <c r="D135">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E135">
         <v>0</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="G135" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B136">
         <v>9</v>
@@ -4661,596 +4662,596 @@
         <v>2</v>
       </c>
       <c r="D136">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="G136" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B137">
         <v>9</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="B138">
         <v>9</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D138">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="F138">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="B139">
         <v>9</v>
       </c>
       <c r="C139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D139">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
       <c r="F139">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G139" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="B140">
         <v>9</v>
       </c>
       <c r="C140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D140">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G140" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="B141">
         <v>9</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D141">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G141" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="B142">
         <v>9</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D142">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G142" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="B143">
         <v>9</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D143">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G143" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B144">
         <v>9</v>
       </c>
       <c r="C144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D144">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G144" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>9</v>
       </c>
       <c r="C145">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D145">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G145" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B146">
         <v>9</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D146">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G146" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B147">
         <v>9</v>
       </c>
       <c r="C147">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D147">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G147" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>9</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D148">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E148">
         <v>0</v>
       </c>
       <c r="F148">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G148" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B149">
         <v>9</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D149">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E149">
         <v>0</v>
       </c>
       <c r="F149">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G149" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B150">
         <v>9</v>
       </c>
       <c r="C150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
       <c r="F150">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G150" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B151">
         <v>9</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D151">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E151">
         <v>0</v>
       </c>
       <c r="F151">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G151" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B152">
         <v>9</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E152">
         <v>0</v>
       </c>
       <c r="F152">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B153">
         <v>9</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D153">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B154">
         <v>9</v>
       </c>
       <c r="C154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D154">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F154">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="G154" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="B155">
         <v>9</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="G155" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B156">
         <v>9</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D156">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F156">
-        <v>3</v>
+        <v>391</v>
       </c>
       <c r="G156" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B157">
         <v>9</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F157">
-        <v>5</v>
+        <v>427</v>
       </c>
       <c r="G157" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="B158">
         <v>9</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F158">
-        <v>5</v>
+        <v>429</v>
       </c>
       <c r="G158" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B159">
         <v>9</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F159">
-        <v>6</v>
+        <v>434</v>
       </c>
       <c r="G159" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B160">
         <v>9</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F160">
-        <v>9</v>
+        <v>448</v>
       </c>
       <c r="G160" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B161">
         <v>9</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>449</v>
       </c>
       <c r="G161" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B162">
         <v>9</v>
@@ -5259,21 +5260,21 @@
         <v>4</v>
       </c>
       <c r="D162">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E162">
         <v>0</v>
       </c>
       <c r="F162">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G162" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B163">
         <v>9</v>
@@ -5282,21 +5283,21 @@
         <v>4</v>
       </c>
       <c r="D163">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E163">
         <v>0</v>
       </c>
       <c r="F163">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G163" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B164">
         <v>9</v>
@@ -5305,21 +5306,21 @@
         <v>4</v>
       </c>
       <c r="D164">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E164">
         <v>0</v>
       </c>
       <c r="F164">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B165">
         <v>9</v>
@@ -5328,21 +5329,21 @@
         <v>4</v>
       </c>
       <c r="D165">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E165">
         <v>0</v>
       </c>
       <c r="F165">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G165" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B166">
         <v>9</v>
@@ -5351,21 +5352,21 @@
         <v>4</v>
       </c>
       <c r="D166">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E166">
         <v>0</v>
       </c>
       <c r="F166">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G166" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B167">
         <v>9</v>
@@ -5374,21 +5375,21 @@
         <v>4</v>
       </c>
       <c r="D167">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E167">
         <v>0</v>
       </c>
       <c r="F167">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G167" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B168">
         <v>9</v>
@@ -5397,16 +5398,16 @@
         <v>4</v>
       </c>
       <c r="D168">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E168">
         <v>0</v>
       </c>
       <c r="F168">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G168" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -5420,13 +5421,13 @@
         <v>4</v>
       </c>
       <c r="D169">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E169">
         <v>0</v>
       </c>
       <c r="F169">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G169" t="s">
         <v>149</v>
@@ -5434,7 +5435,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B170">
         <v>9</v>
@@ -5443,21 +5444,21 @@
         <v>4</v>
       </c>
       <c r="D170">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
       <c r="F170">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G170" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B171">
         <v>9</v>
@@ -5466,21 +5467,21 @@
         <v>4</v>
       </c>
       <c r="D171">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
       <c r="F171">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G171" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B172">
         <v>9</v>
@@ -5489,16 +5490,16 @@
         <v>4</v>
       </c>
       <c r="D172">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -5512,13 +5513,13 @@
         <v>4</v>
       </c>
       <c r="D173">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G173" t="s">
         <v>149</v>
@@ -5526,7 +5527,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B174">
         <v>9</v>
@@ -5535,21 +5536,21 @@
         <v>4</v>
       </c>
       <c r="D174">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E174">
         <v>0</v>
       </c>
       <c r="F174">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G174" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B175">
         <v>9</v>
@@ -5558,16 +5559,16 @@
         <v>4</v>
       </c>
       <c r="D175">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G175" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -5581,13 +5582,13 @@
         <v>4</v>
       </c>
       <c r="D176">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G176" t="s">
         <v>161</v>
@@ -5595,7 +5596,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B177">
         <v>9</v>
@@ -5604,21 +5605,21 @@
         <v>4</v>
       </c>
       <c r="D177">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E177">
         <v>0</v>
       </c>
       <c r="F177">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G177" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B178">
         <v>9</v>
@@ -5633,15 +5634,15 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G178" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B179">
         <v>9</v>
@@ -5656,15 +5657,15 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G179" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B180">
         <v>9</v>
@@ -5679,15 +5680,15 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G180" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B181">
         <v>9</v>
@@ -5702,15 +5703,15 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B182">
         <v>9</v>
@@ -5725,15 +5726,15 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B183">
         <v>9</v>
@@ -5748,15 +5749,15 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B184">
         <v>9</v>
@@ -5771,15 +5772,15 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B185">
         <v>9</v>
@@ -5794,10 +5795,10 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G185" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -5817,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
         <v>161</v>
@@ -5825,7 +5826,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B187">
         <v>9</v>
@@ -5840,15 +5841,15 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B188">
         <v>9</v>
@@ -5857,21 +5858,21 @@
         <v>4</v>
       </c>
       <c r="D188">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E188">
         <v>0</v>
       </c>
       <c r="F188">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G188" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B189">
         <v>9</v>
@@ -5880,21 +5881,21 @@
         <v>4</v>
       </c>
       <c r="D189">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
       <c r="F189">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G189" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B190">
         <v>9</v>
@@ -5903,90 +5904,90 @@
         <v>4</v>
       </c>
       <c r="D190">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E190">
         <v>0</v>
       </c>
       <c r="F190">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G190" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B191">
         <v>9</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G191" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B192">
         <v>9</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D192">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G192" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B193">
         <v>9</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D193">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E193">
         <v>0</v>
       </c>
       <c r="F193">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G193" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B194">
         <v>9</v>
@@ -5995,21 +5996,21 @@
         <v>4</v>
       </c>
       <c r="D194">
+        <v>12</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
         <v>10</v>
       </c>
-      <c r="E194">
-        <v>0</v>
-      </c>
-      <c r="F194">
-        <v>8</v>
-      </c>
       <c r="G194" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B195">
         <v>9</v>
@@ -6018,7 +6019,7 @@
         <v>4</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -6027,12 +6028,12 @@
         <v>11</v>
       </c>
       <c r="G195" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B196">
         <v>9</v>
@@ -6041,21 +6042,21 @@
         <v>4</v>
       </c>
       <c r="D196">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
       <c r="F196">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G196" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B197">
         <v>9</v>
@@ -6064,21 +6065,21 @@
         <v>4</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E197">
         <v>0</v>
       </c>
       <c r="F197">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G197" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B198">
         <v>9</v>
@@ -6087,21 +6088,21 @@
         <v>4</v>
       </c>
       <c r="D198">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E198">
         <v>0</v>
       </c>
       <c r="F198">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G198" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B199">
         <v>9</v>
@@ -6110,21 +6111,21 @@
         <v>4</v>
       </c>
       <c r="D199">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E199">
         <v>0</v>
       </c>
       <c r="F199">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G199" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B200">
         <v>9</v>
@@ -6133,21 +6134,21 @@
         <v>4</v>
       </c>
       <c r="D200">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E200">
         <v>0</v>
       </c>
       <c r="F200">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G200" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B201">
         <v>9</v>
@@ -6156,13 +6157,13 @@
         <v>4</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E201">
         <v>0</v>
       </c>
       <c r="F201">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="G201" t="s">
         <v>142</v>
@@ -6170,465 +6171,472 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B202">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C202">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="G202" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="B203">
         <v>9</v>
       </c>
       <c r="C203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E203">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>318</v>
+        <v>21</v>
       </c>
       <c r="G203" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B204">
         <v>9</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E204">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="G204" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B205">
         <v>9</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E205">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>391</v>
+        <v>22</v>
       </c>
       <c r="G205" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B206">
         <v>9</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>427</v>
+        <v>23</v>
       </c>
       <c r="G206" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B207">
         <v>9</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E207">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>429</v>
+        <v>23</v>
       </c>
       <c r="G207" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="B208">
         <v>9</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D208">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>434</v>
+        <v>25</v>
       </c>
       <c r="G208" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B209">
         <v>9</v>
       </c>
       <c r="C209">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>448</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B210">
         <v>9</v>
       </c>
       <c r="C210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E210">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>449</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B211">
         <v>9</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D211">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E211">
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G211" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B212">
         <v>9</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D212">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G212" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B213">
         <v>9</v>
       </c>
       <c r="C213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G213" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="B214">
         <v>9</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E214">
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G214" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="B215">
         <v>9</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D215">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E215">
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G215" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="B216">
         <v>9</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D216">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E216">
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G216" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="B217">
         <v>9</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E217">
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G217" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="B218">
         <v>9</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D218">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G218" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="B219">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D219">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E219">
         <v>0</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G219" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="B220">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
       <c r="F220">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="G220" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="B221">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D221">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
       <c r="F221">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G221" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G221">
+    <sortCondition ref="B2:B221"/>
+    <sortCondition ref="C2:C221"/>
+    <sortCondition ref="E2:E221"/>
+    <sortCondition ref="D2:D221"/>
+    <sortCondition ref="F2:F221"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
